--- a/GenericScenarioEvaluation/Reviewed Scenarios/BB/Transformer Manufacturing Draft.xlsx
+++ b/GenericScenarioEvaluation/Reviewed Scenarios/BB/Transformer Manufacturing Draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/barrett_williamm_epa_gov/Documents/Profile/Desktop/GS Review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WBARRETT\Environmental Protection Agency (EPA)\CSS RA-2 Project Team - General\Bill Paper - Generic Scenario Review\Reviewed Scenarios\BB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{D21B3DA9-9B20-429C-8408-69FD36AE1659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{CEC3D47A-084F-46BA-9154-7D88483E7D5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E2B0AE-97E1-48A6-98F5-C97D6C68B7D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="231">
   <si>
     <t>Included? (Y or N)</t>
   </si>
@@ -613,62 +613,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Winding</t>
-  </si>
-  <si>
-    <t>The process whereby magnet wire, generally copper, is wound into coils. Winding is performed manually or with a variety of specialized semiautomated and automated winding machines. Insulation materials, such as tapes or molded plastic shields, are added to the coils during the winding process. Chemical usage during winding is negligible. Waste consists of scrap magnet wire that is recycled for metal content.</t>
-  </si>
-  <si>
-    <t>Termination of magnet wires</t>
-  </si>
-  <si>
-    <t>Electrically connects the wires of the windings to bobbin terminals, to lugs, or to color-coded lead wires. Termination can be performed at any of several stages of the manufacturing process. Tin-lead solder, using rosin flux, is the most common termination method. Soldering is performed with solder irons, by dipping in solder pots, or by directing a fountain of molten solder over the wires to be terminated. The first two processes are performed manually or automatically, whereas the latter process generally is automated. Automatic soldering of terminated wire often is combined with automatic winding equipment to form a coil finishing system. 
-For most small transformers, termination occurs immediately after winding when the coil wire, which was wrapped around solder-plated terminals during the winding process, is soldered to the terminals. The magnet wire used in these applications generally is insulated with a polyurethane film that is burned off by the solder during termination. Manual soldering typically is performed continuously over 8-hour shifts. 
-If the wires have been immersed in any impregnating materials or if higher-temperature wire insulation is used, these materials must be mechanically removed (e.g., with wire brushes) before solder can be applied. Solder is then applied directly to the exposed copper wire and terminals. Mildly activated rosin fluxes generally are used, because coils offer many areas where stronger acid fluxes could be entrapped and cause corrosion problems. Isopropyl alcohol is used in liquid form as a solvent to maintain the desired flux viscosity and to clean flux application equipment.
-Solder operators work at benches for a continuous 8-hour shift. During this time, they handle solder in wire or bar form and, if they are using a solder pot, skim oxide (dross) from the top of the pot. The dross is recycled for metal content. They use isopropyl alcohol and wipes for cleaning and thinning flux. They are exposed to fumes from soldering (e.g., burnt rosin and magnet wire insulation) and lead in the solder, although exhaust systems generally are used to pull fumes away from the operators.</t>
-  </si>
-  <si>
-    <t>Flux residue removal</t>
-  </si>
-  <si>
-    <t>Sometimes performed using alcohol or halogenated hydrocarbon solvents such as trichlorotrifluoroethane. Components to be cleaned are placed in stainless steel baskets and lowered into vapor degreasers. The solvent must be compatible with the magnet wire insulation and molded plastic bobbins and must evaporate completely and quickly from the coil. Operators are exposed to vapors from solvents when baskets are lowered into and removed from the degreasers, although not continuously. Other solvent-related maintenance activities, such as adding solvent or draining sumps, also expose operators.</t>
-  </si>
-  <si>
-    <t>Assembly</t>
-  </si>
-  <si>
-    <t>Involves mating core materials to the coil and fixing them in place. Cores are built up using two ferrite core halves or a set of laminations that are stacked up in various configurations. Core assemblies are "locked" together by mechanical fasteners (e.g., clips or bolts), welding, or adhesives. The most common adhesives are two-part epoxies that are applied manually using syringe-type applicators. The two adhesive parts are mixed using packaging that avoids operator contact. During application and handling of bonded cores, skin contact is possible, although operators can wear gloves or rubber finger cots to minimize contact. It is not uncommon for adhesive application to be performed continuously over an 8-hour shift by operators. Wastes include cured adhesives and dispensing materials.</t>
-  </si>
-  <si>
-    <t>Impregnation</t>
-  </si>
-  <si>
-    <t>Generally a batch process in which assembled transformers are immersed in open tanks of liquid impregnant. Baskets lifted by powered hoists commonly are used to transport transformers in and out of the dip tanks and to carts for transfer to curing ovens. If impregnation is performed under vacuum, the transformers are placed in a vacuum chamber and, after air is removed, are immersed in the impregnant. Impregnants are solvent-based, water-borne, or solvent-free and generally are polyesters, polyurethanes, or epoxies. Common solvents used are xylene and toluene.
-Impregnation facilities are located in a room physically separated from other operations. Air from the room is exhausted to outside air and curing ovens have their own exhaust systems. Operators are exposed to solvent vapors from immersion tanks and during transport of transformers with uncured impregnant from the immersion tanks to curing ovens. Baskets of transformers are handled with hoists, so some distance is maintained between operators and the uncured impregnant to minimize physical contact. Tank maintenance may be daily and consists of pumping material to drums for disposal and refilling tanks with fresh materials. Some additives, such as catalysts, are added to the tanks by operators. 
-Polyester varnishes are the most common materials. Solvent varnishes contain solvents such as xylene and toluene. Solventless varnishes are now available that contain styrene and vinyl toluene. Waterborne varnishes contain small amounts of butyl cellusolve (less than 0.5%).</t>
-  </si>
-  <si>
-    <t>Conformal coating</t>
-  </si>
-  <si>
-    <t>Coating performed for many small transformers using a variety of coating materials. These materials protect the coil wires, bond cores together, and provide additional electrical insulation between wires. The process generally is performed manually with some mechanical dipping aids in an exhausted work room. The coating is dried in batch or continuous ovens or is simply air dried. Conformal coating materials generally are acrylics or polyurethanes with aromatic solvents such as toluene and xylene. Transformers that are conformally coated generally are hand-dipped to ensure complete coating without coating solderable terminals. Operators are exposed to solvent vapors during immersion and curing of coated transformers and during cleanup of work stations. Protective gloves or finger cots are used to reduce contact with skin. Other activities include adding material to immersion tanks.</t>
-  </si>
-  <si>
-    <t>Encapsulation</t>
-  </si>
-  <si>
-    <t>Filling inverted cases that contain transformers. Filling is performed with machines that blend the encapsulant materials and dispense metered amounts when an operator presses a foot switch. The operator manually positions the cases under the dispenser nozzle using holding trays mounted on a sliding table. The process can be automated, particularly for designs that requiring encapsulation to be performed under vacuum conditions. For very small volume production, encapsulating materials can be dispensed with disposable containers that blend the two parts as they are dispensed. Compressed air is used to force the material out of the container. Common encapsulating materials include epoxies, polyurethanes, and silicones, many of which require heat for curing. Ovens used to cure encapsulants usually are exhausted, as are encapsulant-dispensing machines or stations. Encapsulation operators can spend an entire 8-hour shift continuously dispensing materials.</t>
-  </si>
-  <si>
-    <t>Marking</t>
-  </si>
-  <si>
-    <t>Identification information usually marked with ink-jet printers that print directly on the transformers or on labels that are applied to the transformers. Rubber hand stamps with air-dry inks also are used. Pad printers that pick up ink from an engraved plate onto a soft rubber pad and transfer it to the transformer are commonly used. Batch and continuous ovens, as well as ultraviolet light, are used to dry or cure inks. A variety of inks are used to mark transformers, including solvent-based inks, UV-curable inks, and two-part epoxy inks. Operator exposure to inks and solvents varies with the printing process. Ink-jet printers result in negligible exposure, whereas both pad printers and hand stamping processes expose operators to inks and solvents during setup, printing, curing, and cleanup. Printing often is a full-time task during an 8-hour shift and is performed in an exhausted work station [1]</t>
-  </si>
-  <si>
-    <t>PMN chemicals may be used in many of the steps involved in transformer manufacturing. Specifically, PMN chemicals may be used as (1) solder fluxes and cleaning solvents in the termination process,  (2) solvents for flux residue removal, (3) epoxies and adhesives in the assembly process, (4) impregnants and solvents in the impregnating process, (5) coating materials and solvents in the conformal coating process, (6) epoxies or other materials for encapsulation, and (7) inks, dyes, and solvents in the marking process. Each of these process steps involves distinctly different operations that will result in varying amounts of environmental emissions and worker exposure hazards.</t>
-  </si>
-  <si>
     <t>%PMN</t>
   </si>
   <si>
@@ -764,13 +708,6 @@
 It is difficult to estimate the extent of air emissions for a PMN chemical with the current information available. However, it would be expected that if the PMN chemical is volatile, a large fraction of the air releases would arise from the open-top impregnation tanks and from the curing oven. The amount of PMN chemical that would be released as air emissions from a facility could be estimated as:</t>
   </si>
   <si>
-    <t>Worker Exposure</t>
-  </si>
-  <si>
-    <t>Worker exposure to the PMN chemical in the impregnant could potentially occur from various operations within the impregnation process. These include the operations to (1) fill the immersion tanks with impregnant liquid, (2) add the additives to the tanks, (3) load transformers into the tanks and stay in the vicinity of the tanks to oversee the impregnation process, (4) transfer impregnated transformers to curing ovens, and (5) perform maintenance on the immersion tanks. The impregnation is performed in a separate area with a dedicated staff of, on average, three workers.
-Additionally, one maintenance worker would support the operation. The extent of worker exposure to the PMN chemical in these process steps would depend on the nature of the process equipment; the volatility of the PMN chemical; and the proximity of the workers to the immersion tanks, impregnated transformers, and curing ovens. Accurate quantification of the various routes for potential worker exposure is difficult with the limited information currently available. For this generic scenario, the various potential routes of worker exposure are discussed qualitatively.</t>
-  </si>
-  <si>
     <t>Inhalation (mg/day)</t>
   </si>
   <si>
@@ -795,6 +732,12 @@
   <si>
     <t xml:space="preserve">The containers used to transport the PMN chemical to the facility are assumed to be recycled, cleaned to remove contamination, and appropriately landfilled or incinerated. All liquid and water wastes are assumed to be reused, reprocessed, or air dried and then disposed of as solid wastes. Solid wastes containing the PMN chemical are assumed to be disposed of using appropriate mechanisms.
 Note that release of the PMN chemical to the environment also may occur as a result of the retention of PMN in the cured transformer impregnant. The implications of this release may need to be addressed for the PMN chemical. </t>
+  </si>
+  <si>
+    <t>Not Expected</t>
+  </si>
+  <si>
+    <t>Assumed</t>
   </si>
 </sst>
 </file>
@@ -860,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -908,9 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1431,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE2C11F-6A25-4CA6-B493-2A0028270B50}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,150 +1421,89 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="G5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="345" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="300" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>247</v>
+        <v>228</v>
+      </c>
+      <c r="G7" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0F14524-26CE-4B40-96EB-55127065C555}">
           <x14:formula1>
             <xm:f>EntryData!$D$2:$D$24</xm:f>
@@ -1647,7 +1526,19 @@
           <x14:formula1>
             <xm:f>EntryData!$M$2:$M$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
+          <xm:sqref>G2:G4 G6 G8:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A1AA66A4-2443-467B-99D3-929820678133}">
+          <x14:formula1>
+            <xm:f>EntryData!$M$2:$M$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69C9F0EA-651F-42F2-98C8-EC520D1B141A}">
+          <x14:formula1>
+            <xm:f>EntryData!$M$2:$M$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>G7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1659,7 +1550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78077DBB-A397-46CD-B146-C677BF2ED83E}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1686,7 +1577,7 @@
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -1732,7 +1623,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1740,7 +1631,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="6"/>
       <c r="H2" s="13" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="I2" s="6"/>
       <c r="K2" s="6"/>
@@ -1751,7 +1642,7 @@
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1759,13 +1650,13 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="I3" s="6">
         <v>150</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1775,7 +1666,7 @@
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1783,13 +1674,13 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="I4" s="11">
         <v>250</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1800,10 +1691,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>217</v>
+        <v>198</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1820,7 +1711,7 @@
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1828,7 +1719,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="I6" s="6"/>
       <c r="K6" s="6"/>
@@ -1840,7 +1731,7 @@
     </row>
     <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1848,7 +1739,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="I7" s="6"/>
       <c r="K7" s="6"/>
@@ -1860,10 +1751,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1880,7 +1771,7 @@
     </row>
     <row r="9" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1888,7 +1779,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="17" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="I9" s="6"/>
       <c r="K9" s="6"/>
@@ -1900,10 +1791,10 @@
     </row>
     <row r="10" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1911,7 +1802,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="I10" s="6"/>
       <c r="K10" s="6"/>
@@ -1923,7 +1814,7 @@
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1931,7 +1822,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I11" s="6"/>
       <c r="K11" s="6"/>
@@ -1943,7 +1834,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1951,7 +1842,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="I12" s="6"/>
       <c r="K12" s="6"/>
@@ -1963,7 +1854,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1971,7 +1862,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="6"/>
@@ -1983,7 +1874,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1991,7 +1882,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="I14" s="6"/>
       <c r="K14" s="6"/>
@@ -2019,19 +1910,19 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="A16" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="17" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="I16" s="6"/>
       <c r="K16" s="6"/>
@@ -2152,7 +2043,7 @@
   <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,6 +2131,9 @@
       <c r="F4" t="s">
         <v>136</v>
       </c>
+      <c r="M4" t="s">
+        <v>229</v>
+      </c>
       <c r="P4" t="s">
         <v>179</v>
       </c>
@@ -2253,6 +2147,9 @@
       </c>
       <c r="F5" t="s">
         <v>137</v>
+      </c>
+      <c r="M5" t="s">
+        <v>230</v>
       </c>
       <c r="P5" t="s">
         <v>173</v>
@@ -2718,42 +2615,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3190,8 +3053,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3204,6 +3101,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E904D625-A082-4E10-BC5B-405903B158C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="241d41d8-5778-4e30-b44e-dee891c66b79"/>
+    <ds:schemaRef ds:uri="af43f131-d884-42a1-ba66-3c1404ec48fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27FAEFF-543C-4C30-A571-905BD321BEF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3224,18 +3152,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E904D625-A082-4E10-BC5B-405903B158C8}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9A4B38-4D52-46C0-9803-4EB30CC27F1C}">
   <ds:schemaRefs>
